--- a/supporting/_LEGAL/3P-Libraries-Licenses.xlsx
+++ b/supporting/_LEGAL/3P-Libraries-Licenses.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="4840" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="37240" yWindow="1920" windowWidth="28800" windowHeight="11080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>jquery-1.11.2.min.js</t>
   </si>
@@ -131,7 +131,10 @@
     <t>http://isotope.metafizzy.co/license.html</t>
   </si>
   <si>
-    <t>Commercial?</t>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Purchased Commercial License - attached for review.</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,21 +619,27 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -638,7 +647,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId2"/>
     <hyperlink ref="B8" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
@@ -652,7 +661,7 @@
     <hyperlink ref="D4" r:id="rId13"/>
     <hyperlink ref="D3" r:id="rId14"/>
     <hyperlink ref="D2" r:id="rId15"/>
-    <hyperlink ref="D11" r:id="rId16"/>
+    <hyperlink ref="D12" r:id="rId16"/>
     <hyperlink ref="B9" r:id="rId17"/>
     <hyperlink ref="D9" r:id="rId18"/>
   </hyperlinks>
